--- a/biology/Zoologie/Baoulé_(race_bovine)/Baoulé_(race_bovine).xlsx
+++ b/biology/Zoologie/Baoulé_(race_bovine)/Baoulé_(race_bovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baoul%C3%A9_(race_bovine)</t>
+          <t>Baoulé_(race_bovine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La baoulé est une race bovine ivoirienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baoul%C3%A9_(race_bovine)</t>
+          <t>Baoulé_(race_bovine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette race est élevée dans le centre et le nord de la Côte d'Ivoire, le sud du Mali et le sud-ouest du Burkina Faso. Elle appartient à la branche africaine des vaches sans bosse et à courtes cornes de Bos taurus. Longtemps, on a pensé que ce rameau était venu de Mésopotamie, il y a plus de 2000 ans, mais de récentes recherches archéologiques et génétiques[1], ont montré qu'il a été domestiqué, il y a plus de 6000 ans en Afrique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race est élevée dans le centre et le nord de la Côte d'Ivoire, le sud du Mali et le sud-ouest du Burkina Faso. Elle appartient à la branche africaine des vaches sans bosse et à courtes cornes de Bos taurus. Longtemps, on a pensé que ce rameau était venu de Mésopotamie, il y a plus de 2000 ans, mais de récentes recherches archéologiques et génétiques, ont montré qu'il a été domestiqué, il y a plus de 6000 ans en Afrique.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baoul%C3%A9_(race_bovine)</t>
+          <t>Baoulé_(race_bovine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La robe est bariolée, souvent pie noire. Les cornes sont courtes et fines. 
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baoul%C3%A9_(race_bovine)</t>
+          <t>Baoulé_(race_bovine)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est élevée pour son lait, sa viande (consommée essentiellement lors de fêtes) ou sa force de travail. C'est une race bovine de la savane à climat tropical sec. Moins bien adaptée à la sécheresse que les zébus, elle borde la frange sud du Sahel, entre zone aride et forêt équatoriale.  
 </t>
